--- a/tests/testthat/xlsxfiles/numeric-no-headers.xlsx
+++ b/tests/testthat/xlsxfiles/numeric-no-headers.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -431,4 +432,49 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>